--- a/s-t.xlsx
+++ b/s-t.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\专业课\大三下\Theoretical Classes\地下水动力学 2.0\Tycurme_all\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\专业课\大三下\Theoretical Classes\地下水动力学 2.0\配线法小组作业\Tycurme_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{809F3ACA-4CCD-4EED-A829-B1CB99A56DBE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BEFE32-EDFC-4E37-B80E-FD1074874CA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{126A7C12-2495-4C45-9A51-912916B5C43E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{126A7C12-2495-4C45-9A51-912916B5C43E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,12 +82,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -100,19 +115,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -432,7 +447,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -441,359 +456,359 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>43</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>140</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>510</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>780</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>10</v>
       </c>
       <c r="B2" s="5">
         <v>60</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>0.73</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>0.16</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>20</v>
       </c>
       <c r="B3" s="5">
         <v>60</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1.28</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.48</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>30</v>
       </c>
       <c r="B4" s="5">
         <v>60</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>1.53</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.54</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>40</v>
       </c>
       <c r="B5" s="5">
         <v>60</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1.72</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.65</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0.06</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>60</v>
       </c>
       <c r="B6" s="5">
         <v>60</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>1.96</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.75</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>0.2</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>80</v>
       </c>
       <c r="B7" s="5">
         <v>60</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>2.14</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0.2</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>100</v>
       </c>
       <c r="B8" s="5">
         <v>60</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>2.2799999999999998</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>1.1200000000000001</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>0.2</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>120</v>
       </c>
       <c r="B9" s="5">
         <v>60</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>2.39</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>1.22</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>0.21</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0.08</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>150</v>
       </c>
       <c r="B10" s="5">
         <v>60</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>2.54</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>1.36</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>0.24</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>0.09</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>210</v>
       </c>
       <c r="B11" s="5">
         <v>60</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>2.77</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>1.55</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>0.4</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>0.16</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>270</v>
       </c>
       <c r="B12" s="5">
         <v>60</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>2.99</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>1.7</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>0.53</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>330</v>
       </c>
       <c r="B13" s="5">
         <v>60</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>3.1</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>1.83</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>0.63</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>0.34</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>400</v>
       </c>
       <c r="B14" s="5">
         <v>60</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>3.2</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>1.89</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>0.65</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>0.42</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>450</v>
       </c>
       <c r="B15" s="5">
         <v>60</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>3.26</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>1.98</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>0.73</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>645</v>
       </c>
       <c r="B16" s="5">
         <v>60</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>3.47</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>2.17</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>0.93</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>0.71</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>870</v>
       </c>
       <c r="B17" s="5">
         <v>60</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>3.68</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>2.38</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>0.87</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>990</v>
       </c>
       <c r="B18" s="5">
         <v>60</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>3.77</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>2.46</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>1.24</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>0.96</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>1185</v>
       </c>
       <c r="B19" s="5">
         <v>60</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>3.85</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>2.54</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>1.35</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>1.06</v>
       </c>
     </row>
